--- a/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
+++ b/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Files\Penn Spring 2022\ESE516\ese516_team\ESE516_IoTracking (1-31-2022 3-06-24 PM)\ESE516_Starter_PCB\Project Outputs for ESE516_IoTracking\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4FB71E1-9E1E-44B6-A6BF-3DCBAB87D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F220D5-DC88-4BB5-A683-6D74E76B86DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{BB6B305B-BC34-495F-AE14-2CC3E939034B}"/>
+    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{6D5FB9BE-4C28-4550-9C56-05BC224F5697}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_Exampl" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
   <si>
     <t>Line #</t>
   </si>
@@ -102,6 +102,654 @@
     <t>497-LSM6DSO32CT-ND</t>
   </si>
   <si>
+    <t>GPS 13740</t>
+  </si>
+  <si>
+    <t>GPS Module 13740 1.575Ghz RF Receiver</t>
+  </si>
+  <si>
+    <t>GPS_Module1</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>GPS-13740</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>FT234XD-R</t>
+  </si>
+  <si>
+    <t>FT234XD USB to BASIC UART IC, -40 to +85 degC, 12-Pin DFN, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>SAMW25H18-MR510PB</t>
+  </si>
+  <si>
+    <t>RF TXRX MODULE WIFI TRACE ANT</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>ATSAMW25H18-MR510PB</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>ATSAMW25H18-MR510PB-ND</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>CRCW06030000Z0EC</t>
+  </si>
+  <si>
+    <t>R4, RJ1</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>CR0603-J/-000ELF</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>652-CR0603-J/-000ELF</t>
+  </si>
+  <si>
+    <t>GRM033C80J104ME15D</t>
+  </si>
+  <si>
+    <t>Chip Multilayer Ceramic Capacitors for General Purpose, 0201, 0.10uF, X6S, 22%, 20%, 6.3V</t>
+  </si>
+  <si>
+    <t>C_A1, C_A2</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>81-GRM33C80J104ME15D</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ERJ3EKF1002V</t>
+  </si>
+  <si>
+    <t>Chip Resistor, 10 KOhm, +/- 1%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>R12, R14, R15</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1002ELF</t>
+  </si>
+  <si>
+    <t>652-CR0603FX-1002ELF</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEB</t>
+  </si>
+  <si>
+    <t>R3, R5, R7, R11, R16, R17</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>27R 1% 0603(1608)</t>
+  </si>
+  <si>
+    <t>27R 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R1, R2, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>CR0603-FX-27R0ELF</t>
+  </si>
+  <si>
+    <t>CR0603-FX-27R0ELFCT-ND</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>VJ0603Y104KXJCW1BC</t>
+  </si>
+  <si>
+    <t>C1, C3, C7, C13</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>603-CC603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>AT0603DRD074K7L</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 0.5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R_A1, R_A2, R_O1, R_O2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>P4.70KHCT-ND</t>
+  </si>
+  <si>
+    <t>CPF0603B180KE</t>
+  </si>
+  <si>
+    <t>RES SMD 180KΩ 0.1% 1/16W 0603</t>
+  </si>
+  <si>
+    <t>R_B1</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1803V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1803V</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1K13 1% 0603(1608)</t>
+  </si>
+  <si>
+    <t>1K13 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R18, R19</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1131V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1131V</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C0603C103K4RACTU</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>603-CC603KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>100R 1% 0603(1608)</t>
+  </si>
+  <si>
+    <t>100R 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1000ELF</t>
+  </si>
+  <si>
+    <t>652-CR0603FX-1000ELF</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>BLM21PG221SN1D</t>
+  </si>
+  <si>
+    <t>Chip Ferrite Bead, 0805, 220Ω @ 100MHz, 0.045Ω, 25%, 2A</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>MH2029-221Y</t>
+  </si>
+  <si>
+    <t>MH2029-221YCT-ND</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Jumper 0805(2012)</t>
+  </si>
+  <si>
+    <t>Jumper 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>CR0805-J/-000ELF</t>
+  </si>
+  <si>
+    <t>652-CR0805-J/-000ELF</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>640456-3</t>
+  </si>
+  <si>
+    <t>Male Header, Pitch 2.54 mm, 1 x 3 Position, Height 10.03 mm, Tail Length 3.56 mm, -55 to 105 degC</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>571-6404563</t>
+  </si>
+  <si>
+    <t>640456-4</t>
+  </si>
+  <si>
+    <t>Male Header, Pitch 2.54 mm, 1 x 4 Position, Height 10.03 mm, Tail Length 3.56 mm, RoHS, Bulk</t>
+  </si>
+  <si>
+    <t>P2, P3, P4, P5</t>
+  </si>
+  <si>
+    <t>571-6404564</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0603YC105JAT2A</t>
+  </si>
+  <si>
+    <t>C10, C14</t>
+  </si>
+  <si>
+    <t>GRM185R61C105KE44J</t>
+  </si>
+  <si>
+    <t>490-6372-1-ND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CAP 4.7uF 16V 0805(2012)</t>
+  </si>
+  <si>
+    <t>CAP 4.7uF 16V -20% to +80% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C4, C15, C16</t>
+  </si>
+  <si>
+    <t>CC0805ZKY5V7BB475</t>
+  </si>
+  <si>
+    <t>603-CC805ZKY5V7BB475</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CAP 18pF 16V 0603(1608)</t>
+  </si>
+  <si>
+    <t>CAP 18pF 16V ±5% 0603 (1608 Metric) Thickness 1mm SMD</t>
+  </si>
+  <si>
+    <t>C11, C12</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C180J4GACTU</t>
+  </si>
+  <si>
+    <t>399-C0603C180J4GAC7867CT-ND</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CAP 47pF 16V 0603(1608)</t>
+  </si>
+  <si>
+    <t>CAP 47pF 16V ±0.5pF 0603 (1608 Metric) Thickness 1mm SMD</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
+  </si>
+  <si>
+    <t>C0603C470J4GACTU</t>
+  </si>
+  <si>
+    <t>80-C0603C470J4GACTU</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR SMD</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>Vishay Lite-On</t>
+  </si>
+  <si>
+    <t>859-LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>LTST-C170GKT</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>160-1179-1-ND</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>PTS810 SJK 250 SMTR LFS</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 16V Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ITT C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS810SJK250SMTRLFS</t>
+  </si>
+  <si>
+    <t>611-PTS810SJK250SMTR</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>LTST-C170CKT</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR SMD</t>
+  </si>
+  <si>
+    <t>D1, D3</t>
+  </si>
+  <si>
+    <t>Lumex</t>
+  </si>
+  <si>
+    <t>SML-LX0805SIC-TR</t>
+  </si>
+  <si>
+    <t>696-SML-LX0805SIC</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>PRTR5V0U2X,215</t>
+  </si>
+  <si>
+    <t>Ultra Low Capacitance Double Rail-to-Rail ESD Protection Diode, 5.5 V, 1 pF, -40 to 85 degC, 4-Pin SOT143B, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>771-PRTR5V0U2X-T/R</t>
+  </si>
+  <si>
+    <t>C1608X5R1C106M080AB</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>C_B2</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>445-9065-1-ND</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20021111-00010T4LF</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS UNSHD VERT T/H</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Amphenol ICC / FCI</t>
+  </si>
+  <si>
+    <t>649-221111-00010T4LF</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ZX62R-B-5P</t>
+  </si>
+  <si>
+    <t>Connector; USBMicro-B,Reverse type, SMT; 5 Position; Right Angle</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Hirose</t>
+  </si>
+  <si>
+    <t>ZX62R-B-5P(30)</t>
+  </si>
+  <si>
+    <t>798-ZX62R-B-5P30</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0805YD106KAT2A</t>
+  </si>
+  <si>
+    <t>General Purpose Ceramic Capacitor, 0805, 10uF, 10%, X5R, 15%, 16V</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>C0805C106K4PAC</t>
+  </si>
+  <si>
+    <t>80-C0805C106K4PAC</t>
+  </si>
+  <si>
+    <t>TPS62082DSGR</t>
+  </si>
+  <si>
+    <t>1.2A High Efficient Step Down Converter in 2x2mm SON Package. 3.3 Vout (Min) 8-WSON -40 to 125</t>
+  </si>
+  <si>
+    <t>U_Buck1</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>595-TPS62082DSGR</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>104031-0811</t>
+  </si>
+  <si>
+    <t>Micro SD Card, RA, -25 to 85 degC, 8-Pin SMD, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>1040310811</t>
+  </si>
+  <si>
+    <t>538-104031-0811</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>BQ24075RGTRG4</t>
+  </si>
+  <si>
+    <t>USB-Friendly Li-Ion Battery Charger and Power-Path Management IC, Vout 5.5 V, 4.3 V, -40 to 85 degC, 16-pin QFN (RGT), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>BQ24079RGTR</t>
+  </si>
+  <si>
+    <t>595-BQ24079RGTR</t>
+  </si>
+  <si>
+    <t>744311100</t>
+  </si>
+  <si>
+    <t>SMD Flat Wire High Current Inductor WE-HCI, L=1.00 µH</t>
+  </si>
+  <si>
+    <t>L_B1</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>732-4177-1-ND</t>
+  </si>
+  <si>
+    <t>OLED LCD Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD-14532 OLED 0.66'' </t>
+  </si>
+  <si>
+    <t>LCD1</t>
+  </si>
+  <si>
+    <t>LCD-14532</t>
+  </si>
+  <si>
+    <t>474-LCD-14532</t>
+  </si>
+  <si>
+    <t>LiPo Battery</t>
+  </si>
+  <si>
+    <t>LP675365JU+PCM+ 2 WIRES 70MM</t>
+  </si>
+  <si>
+    <t>Battery1</t>
+  </si>
+  <si>
+    <t>Jauch</t>
+  </si>
+  <si>
+    <t>LP675365JU+PCM+2WIRES70MM</t>
+  </si>
+  <si>
+    <t>1908-LP675365JU+PCM+2WIRES70MM-ND</t>
+  </si>
+  <si>
     <t>C1608X5R0J226M080AC</t>
   </si>
   <si>
@@ -111,652 +759,10 @@
     <t>C_B1</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>Volume Production</t>
-  </si>
-  <si>
-    <t>GPS 13740</t>
-  </si>
-  <si>
-    <t>GPS Module 13740 1.575Ghz RF Receiver</t>
-  </si>
-  <si>
-    <t>GPS_Module1</t>
-  </si>
-  <si>
-    <t>SparkFun</t>
-  </si>
-  <si>
-    <t>GPS-13740</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20021111-00010T4LF</t>
-  </si>
-  <si>
-    <t>CONN HEADER 10POS UNSHD VERT T/H</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Amphenol ICC / FCI</t>
-  </si>
-  <si>
-    <t>609-3712-ND</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>FT234XD-R</t>
-  </si>
-  <si>
-    <t>FT234XD USB to BASIC UART IC, -40 to +85 degC, 12-Pin DFN, Pb-Free, Tape and Reel</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>FTDI</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>SAMW25H18-MR510PB</t>
-  </si>
-  <si>
-    <t>RF TXRX MODULE WIFI TRACE ANT</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>ATSAMW25H18-MR510PB</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>ATSAMW25H18-MR510PB-ND</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>CRCW06030000Z0EC</t>
-  </si>
-  <si>
-    <t>R4, RJ1</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>CR0603-J/-000ELF</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>652-CR0603-J/-000ELF</t>
-  </si>
-  <si>
-    <t>GRM033C80J104ME15D</t>
-  </si>
-  <si>
-    <t>Chip Multilayer Ceramic Capacitors for General Purpose, 0201, 0.10uF, X6S, 22%, 20%, 6.3V</t>
-  </si>
-  <si>
-    <t>C_A1, C_A2</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>81-GRM33C80J104ME15D</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ERJ3EKF1002V</t>
-  </si>
-  <si>
-    <t>Chip Resistor, 10 KOhm, +/- 1%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>R12, R14, R15</t>
-  </si>
-  <si>
-    <t>CR0603-FX-1002ELF</t>
-  </si>
-  <si>
-    <t>652-CR0603FX-1002ELF</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CRCW06031K00FKEB</t>
-  </si>
-  <si>
-    <t>R3, R5, R7, R11, R16, R17</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>27R 1% 0603(1608)</t>
-  </si>
-  <si>
-    <t>27R 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R1, R2, R8, R9, R10</t>
-  </si>
-  <si>
-    <t>CR0603-FX-27R0ELF</t>
-  </si>
-  <si>
-    <t>CR0603-FX-27R0ELFCT-ND</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>VJ0603Y104KXJCW1BC</t>
-  </si>
-  <si>
-    <t>C1, C3, C7, C13</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>603-CC603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>AT0603DRD074K7L</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 0.5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R_A1, R_A2, R_O1, R_O2</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF4701V</t>
-  </si>
-  <si>
-    <t>P4.70KHCT-ND</t>
-  </si>
-  <si>
-    <t>CPF0603B180KE</t>
-  </si>
-  <si>
-    <t>RES SMD 180KΩ 0.1% 1/16W 0603</t>
-  </si>
-  <si>
-    <t>R_B1</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1803V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF1803V</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1K13 1% 0603(1608)</t>
-  </si>
-  <si>
-    <t>1K13 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R18, R19</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1131V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF1131V</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C0603C103K4RACTU</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB103</t>
-  </si>
-  <si>
-    <t>603-CC603KRX7R7BB103</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>100R 1% 0603(1608)</t>
-  </si>
-  <si>
-    <t>100R 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>CR0603-FX-1000ELF</t>
-  </si>
-  <si>
-    <t>652-CR0603FX-1000ELF</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>BLM21PG221SN1D</t>
-  </si>
-  <si>
-    <t>Chip Ferrite Bead, 0805, 220Ω @ 100MHz, 0.045Ω, 25%, 2A</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>MH2029-221Y</t>
-  </si>
-  <si>
-    <t>MH2029-221YCT-ND</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Jumper 0805(2012)</t>
-  </si>
-  <si>
-    <t>Jumper 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>CR0805-J/-000ELF</t>
-  </si>
-  <si>
-    <t>652-CR0805-J/-000ELF</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>640456-3</t>
-  </si>
-  <si>
-    <t>Male Header, Pitch 2.54 mm, 1 x 3 Position, Height 10.03 mm, Tail Length 3.56 mm, -55 to 105 degC</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>571-6404563</t>
-  </si>
-  <si>
-    <t>640456-4</t>
-  </si>
-  <si>
-    <t>Male Header, Pitch 2.54 mm, 1 x 4 Position, Height 10.03 mm, Tail Length 3.56 mm, RoHS, Bulk</t>
-  </si>
-  <si>
-    <t>P2, P3, P4, P5</t>
-  </si>
-  <si>
-    <t>571-6404564</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0603YC105JAT2A</t>
-  </si>
-  <si>
-    <t>C10, C14</t>
-  </si>
-  <si>
-    <t>GRM185R61C105KE44J</t>
-  </si>
-  <si>
-    <t>490-6372-1-ND</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CAP 4.7uF 16V 0805(2012)</t>
-  </si>
-  <si>
-    <t>CAP 4.7uF 16V -20% to +80% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
-  </si>
-  <si>
-    <t>C4, C15, C16</t>
-  </si>
-  <si>
-    <t>CC0805ZKY5V7BB475</t>
-  </si>
-  <si>
-    <t>311-1907-1-ND</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CAP 18pF 16V 0603(1608)</t>
-  </si>
-  <si>
-    <t>CAP 18pF 16V ±5% 0603 (1608 Metric) Thickness 1mm SMD</t>
-  </si>
-  <si>
-    <t>C11, C12</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0603C180J4GACTU</t>
-  </si>
-  <si>
-    <t>399-C0603C180J4GAC7867CT-ND</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CAP 47pF 16V 0603(1608)</t>
-  </si>
-  <si>
-    <t>CAP 47pF 16V ±0.5pF 0603 (1608 Metric) Thickness 1mm SMD</t>
-  </si>
-  <si>
-    <t>C5, C6</t>
-  </si>
-  <si>
-    <t>C0603C470J4GACTU</t>
-  </si>
-  <si>
-    <t>80-C0603C470J4GACTU</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>LTST-C191KGKT</t>
-  </si>
-  <si>
-    <t>LED GREEN CLEAR SMD</t>
-  </si>
-  <si>
-    <t>DS1</t>
-  </si>
-  <si>
-    <t>Vishay Lite-On</t>
-  </si>
-  <si>
-    <t>859-LTST-C191KGKT</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>LTST-C170GKT</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>160-1179-1-ND</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>PTS810 SJK 250 SMTR LFS</t>
-  </si>
-  <si>
-    <t>SWITCH TACTILE SPST-NO 0.05A 16V Tactile Switch SPST-NO Top Actuated Surface Mount</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>ITT C&amp;K</t>
-  </si>
-  <si>
-    <t>PTS810SJK250SMTRLFS</t>
-  </si>
-  <si>
-    <t>611-PTS810SJK250SMTR</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>LTST-C170CKT</t>
-  </si>
-  <si>
-    <t>LED RED CLEAR SMD</t>
-  </si>
-  <si>
-    <t>D1, D3</t>
-  </si>
-  <si>
-    <t>Lumex</t>
-  </si>
-  <si>
-    <t>SML-LX0805SIC-TR</t>
-  </si>
-  <si>
-    <t>696-SML-LX0805SIC</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>PRTR5V0U2X,215</t>
-  </si>
-  <si>
-    <t>Ultra Low Capacitance Double Rail-to-Rail ESD Protection Diode, 5.5 V, 1 pF, -40 to 85 degC, 4-Pin SOT143B, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>771-PRTR5V0U2X-T/R</t>
-  </si>
-  <si>
-    <t>C1608X5R1C106M080AB</t>
-  </si>
-  <si>
-    <t>CAP CER 10UF 16V X5R 0603</t>
-  </si>
-  <si>
-    <t>C_B2</t>
-  </si>
-  <si>
-    <t>445-9065-1-ND</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ZX62R-B-5P</t>
-  </si>
-  <si>
-    <t>Connector; USBMicro-B,Reverse type, SMT; 5 Position; Right Angle</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Hirose</t>
-  </si>
-  <si>
-    <t>ZX62R-B-5P(30)</t>
-  </si>
-  <si>
-    <t>798-ZX62R-B-5P30</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0805YD106KAT2A</t>
-  </si>
-  <si>
-    <t>General Purpose Ceramic Capacitor, 0805, 10uF, 10%, X5R, 15%, 16V</t>
-  </si>
-  <si>
-    <t>C8, C9</t>
-  </si>
-  <si>
-    <t>C0805C106K4PAC</t>
-  </si>
-  <si>
-    <t>80-C0805C106K4PAC</t>
-  </si>
-  <si>
-    <t>TPS62082DSGR</t>
-  </si>
-  <si>
-    <t>1.2A High Efficient Step Down Converter in 2x2mm SON Package. 3.3 Vout (Min) 8-WSON -40 to 125</t>
-  </si>
-  <si>
-    <t>U_Buck1</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>595-TPS62082DSGR</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>104031-0811</t>
-  </si>
-  <si>
-    <t>Micro SD Card, RA, -25 to 85 degC, 8-Pin SMD, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>SD1</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>1040310811</t>
-  </si>
-  <si>
-    <t>538-104031-0811</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>BQ24075RGTRG4</t>
-  </si>
-  <si>
-    <t>USB-Friendly Li-Ion Battery Charger and Power-Path Management IC, Vout 5.5 V, 4.3 V, -40 to 85 degC, 16-pin QFN (RGT), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>BQ24079RGTR</t>
-  </si>
-  <si>
-    <t>595-BQ24079RGTR</t>
-  </si>
-  <si>
-    <t>744311100</t>
-  </si>
-  <si>
-    <t>SMD Flat Wire High Current Inductor WE-HCI, L=1.00 µH</t>
-  </si>
-  <si>
-    <t>L_B1</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>732-4177-1-ND</t>
-  </si>
-  <si>
-    <t>OLED LCD Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD-14532 OLED 0.66'' </t>
-  </si>
-  <si>
-    <t>LCD1</t>
-  </si>
-  <si>
-    <t>LCD-14532</t>
-  </si>
-  <si>
-    <t>474-LCD-14532</t>
-  </si>
-  <si>
-    <t>LiPo Battery</t>
-  </si>
-  <si>
-    <t>LP675365JU+PCM+ 2 WIRES 70MM</t>
-  </si>
-  <si>
-    <t>Battery1</t>
-  </si>
-  <si>
-    <t>Jauch</t>
-  </si>
-  <si>
-    <t>LP675365JU+PCM+2WIRES70MM</t>
-  </si>
-  <si>
-    <t>1908-LP675365JU+PCM+2WIRES70MM-ND</t>
+    <t>Future Electronics</t>
+  </si>
+  <si>
+    <t>2146</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBB650A-E3C2-4EE7-B196-5C77BAD14585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B490F-5527-439B-9C90-A2ACD271715D}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1245,10 +1251,10 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1257,28 +1263,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1287,257 +1293,269 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>75</v>
@@ -1549,136 +1567,134 @@
         <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>0.1</v>
       </c>
       <c r="L14" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1">
         <v>0.1</v>
@@ -1689,70 +1705,72 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1">
         <v>0.1</v>
       </c>
       <c r="L16" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K17" s="1">
         <v>0.1</v>
@@ -1763,34 +1781,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K18" s="1">
         <v>0.1</v>
@@ -1801,78 +1819,78 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K20" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="L20" s="1">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,39 +1901,39 @@
         <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="K21" s="1">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L21" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>131</v>
@@ -1927,180 +1945,180 @@
         <v>133</v>
       </c>
       <c r="E22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L22" s="1">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L23" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K24" s="1">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L24" s="1">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K25" s="1">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L25" s="1">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>158</v>
       </c>
       <c r="K26" s="1">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L26" s="1">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2123,402 +2141,402 @@
         <v>163</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="L27" s="1">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K28" s="1">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="L28" s="1">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>174</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K29" s="1">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="L29" s="1">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K30" s="1">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="L30" s="1">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K31" s="1">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="L31" s="1">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K32" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K34" s="1">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="L34" s="1">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K35" s="1">
-        <v>1.72</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L35" s="1">
-        <v>1.72</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K36" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="L36" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K37" s="1">
-        <v>2.52</v>
+        <v>3.69</v>
       </c>
       <c r="L37" s="1">
-        <v>2.52</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2526,37 +2544,37 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K38" s="1">
-        <v>3.69</v>
+        <v>16.95</v>
       </c>
       <c r="L38" s="1">
-        <v>3.69</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2564,37 +2582,37 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K39" s="1">
-        <v>16.95</v>
+        <v>18.28</v>
       </c>
       <c r="L39" s="1">
-        <v>16.95</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2602,37 +2620,37 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K40" s="1">
-        <v>18.28</v>
+        <v>288</v>
       </c>
       <c r="L40" s="1">
-        <v>18.28</v>
+        <v>1152000</v>
       </c>
     </row>
   </sheetData>

--- a/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
+++ b/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Files\Penn Spring 2022\ESE516\ese516_team\ESE516_IoTracking (1-31-2022 3-06-24 PM)\ESE516_Starter_PCB\Project Outputs for ESE516_IoTracking\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F220D5-DC88-4BB5-A683-6D74E76B86DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F70A3F-2F21-43EF-ACF9-E3092C8F7CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{6D5FB9BE-4C28-4550-9C56-05BC224F5697}"/>
+    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{C9879B7D-1C5E-42AD-AA11-2DEC0B2E3DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_Exampl" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B490F-5527-439B-9C90-A2ACD271715D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6596C0-2E3D-4411-83B7-C403A10D568B}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
+++ b/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Files\Penn Spring 2022\ESE516\ese516_team\ESE516_IoTracking (1-31-2022 3-06-24 PM)\ESE516_Starter_PCB\Project Outputs for ESE516_IoTracking\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F70A3F-2F21-43EF-ACF9-E3092C8F7CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60654EEF-AD10-421D-ABCD-A02E45427EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{C9879B7D-1C5E-42AD-AA11-2DEC0B2E3DBB}"/>
+    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{7CA147FF-07AA-496D-91C0-79005D435C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_Exampl" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
     <t>MH2029-221Y</t>
   </si>
   <si>
-    <t>MH2029-221YCT-ND</t>
+    <t>652-MH2029-221Y</t>
   </si>
   <si>
     <t>29</t>
@@ -513,7 +513,7 @@
     <t>D4</t>
   </si>
   <si>
-    <t>160-1179-1-ND</t>
+    <t>859-LTST-C170GKT</t>
   </si>
   <si>
     <t>35</t>
@@ -537,6 +537,24 @@
     <t>611-PTS810SJK250SMTR</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>PRTR5V0U2X,215</t>
+  </si>
+  <si>
+    <t>Ultra Low Capacitance Double Rail-to-Rail ESD Protection Diode, 5.5 V, 1 pF, -40 to 85 degC, 4-Pin SOT143B, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>771-PRTR5V0U2X-T/R</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -556,24 +574,6 @@
   </si>
   <si>
     <t>696-SML-LX0805SIC</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>PRTR5V0U2X,215</t>
-  </si>
-  <si>
-    <t>Ultra Low Capacitance Double Rail-to-Rail ESD Protection Diode, 5.5 V, 1 pF, -40 to 85 degC, 4-Pin SOT143B, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>771-PRTR5V0U2X-T/R</t>
   </si>
   <si>
     <t>C1608X5R1C106M080AB</t>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6596C0-2E3D-4411-83B7-C403A10D568B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E1E39-49C7-4770-9089-39E779AA1127}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1767,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>108</v>
@@ -2109,16 +2109,16 @@
         <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>158</v>
       </c>
       <c r="K26" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L26" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2173,54 +2173,54 @@
         <v>169</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K28" s="1">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="L28" s="1">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>45</v>
@@ -2229,10 +2229,10 @@
         <v>178</v>
       </c>
       <c r="K29" s="1">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L29" s="1">
-        <v>0.52</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">

--- a/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
+++ b/ESE516_IoTracking (1-31-2022 3-06-24 PM)/ESE516_Starter_PCB/Project Outputs for ESE516_IoTracking/BOM/Bill of Materials-ESE516_ExampleProject(Build_Alt).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Files\Penn Spring 2022\ESE516\ese516_team\ESE516_IoTracking (1-31-2022 3-06-24 PM)\ESE516_Starter_PCB\Project Outputs for ESE516_IoTracking\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60654EEF-AD10-421D-ABCD-A02E45427EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C806C4-999B-4BE0-8E9A-B070EFEE2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{7CA147FF-07AA-496D-91C0-79005D435C2F}"/>
+    <workbookView xWindow="5265" yWindow="1980" windowWidth="28800" windowHeight="15435" xr2:uid="{2EC433E5-6585-4335-AC5C-86F31991A63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_Exampl" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,24 @@
     <t>ATSAMW25H18-MR510PB-ND</t>
   </si>
   <si>
+    <t>AT0603DRD074K7L</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 0.5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R_A1, R_A2, R_O1, R_O2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>P4.70KHTR-ND</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -264,24 +282,6 @@
     <t>603-CC603KRX7R7BB104</t>
   </si>
   <si>
-    <t>AT0603DRD074K7L</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 0.5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R_A1, R_A2, R_O1, R_O2</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF4701V</t>
-  </si>
-  <si>
-    <t>P4.70KHCT-ND</t>
-  </si>
-  <si>
     <t>CPF0603B180KE</t>
   </si>
   <si>
@@ -312,7 +312,7 @@
     <t>ERJ-3EKF1131V</t>
   </si>
   <si>
-    <t>667-ERJ-3EKF1131V</t>
+    <t>P1.13KHCT-ND</t>
   </si>
   <si>
     <t>7</t>
@@ -363,7 +363,7 @@
     <t>MH2029-221Y</t>
   </si>
   <si>
-    <t>652-MH2029-221Y</t>
+    <t>MH2029-221YCT-ND</t>
   </si>
   <si>
     <t>29</t>
@@ -444,7 +444,7 @@
     <t>CC0805ZKY5V7BB475</t>
   </si>
   <si>
-    <t>603-CC805ZKY5V7BB475</t>
+    <t>311-1907-1-ND</t>
   </si>
   <si>
     <t>9</t>
@@ -588,7 +588,7 @@
     <t>TDK</t>
   </si>
   <si>
-    <t>445-9065-1-ND</t>
+    <t>810-C1608X5R1C106M</t>
   </si>
   <si>
     <t>21</t>
@@ -729,7 +729,7 @@
     <t>LCD-14532</t>
   </si>
   <si>
-    <t>474-LCD-14532</t>
+    <t>1568-1819-ND</t>
   </si>
   <si>
     <t>LiPo Battery</t>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E1E39-49C7-4770-9089-39E779AA1127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14503868-E579-43AF-81DD-976C131D301E}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1327,19 +1327,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>43</v>
@@ -1351,59 +1351,59 @@
         <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="K6" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>5.94E-3</v>
       </c>
       <c r="L6" s="1">
-        <v>0.08</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L7" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -1415,28 +1415,28 @@
         <v>55</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K8" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L8" s="1">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,16 +1447,16 @@
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>62</v>
@@ -1465,16 +1465,16 @@
         <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1485,16 +1485,16 @@
         <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>68</v>
@@ -1503,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>69</v>
@@ -1523,54 +1523,54 @@
         <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>79</v>
@@ -1579,16 +1579,16 @@
         <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="1">
-        <v>0.1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>84</v>
@@ -1617,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>85</v>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>90</v>
@@ -1655,7 +1655,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>91</v>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>95</v>
@@ -1691,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>96</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>101</v>
@@ -1729,7 +1729,7 @@
         <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>102</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>107</v>
@@ -1767,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>108</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>113</v>
@@ -1805,7 +1805,7 @@
         <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>114</v>
@@ -1843,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>120</v>
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>124</v>
@@ -1910,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>19</v>
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>134</v>
@@ -1957,7 +1957,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>135</v>
@@ -2033,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>148</v>
@@ -2071,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>154</v>
@@ -2109,7 +2109,7 @@
         <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>158</v>
@@ -2147,7 +2147,7 @@
         <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>165</v>
@@ -2185,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>171</v>
@@ -2223,7 +2223,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>178</v>
@@ -2261,7 +2261,7 @@
         <v>31</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>183</v>
@@ -2299,7 +2299,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>189</v>
@@ -2337,7 +2337,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>196</v>
@@ -2375,7 +2375,7 @@
         <v>31</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>202</v>
@@ -2413,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>207</v>
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>214</v>
@@ -2489,7 +2489,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>220</v>
@@ -2565,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>230</v>
